--- a/Tickets/Normal Tickets/Ticket 32434 - Address Verfication/AddressChangeSearchResults.xlsx
+++ b/Tickets/Normal Tickets/Ticket 32434 - Address Verfication/AddressChangeSearchResults.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WIP\Tickets\Normal Tickets\Ticket 32434\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WIP\Tickets\Normal Tickets\Ticket 32434 - Address Verfication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B60A0D5B-0747-4214-86F4-10413D40749D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E31463-2BCF-4BAF-B016-0CCA91020C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7875" yWindow="-13710" windowWidth="21420" windowHeight="10815" firstSheet="1" xr2:uid="{23018EB3-73C3-44CA-9407-C6F0E5FCCC93}"/>
+    <workbookView xWindow="17085" yWindow="-16470" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{23018EB3-73C3-44CA-9407-C6F0E5FCCC93}"/>
   </bookViews>
   <sheets>
     <sheet name="Priority List" sheetId="2" r:id="rId1"/>
     <sheet name="Azure Devops" sheetId="1" r:id="rId2"/>
     <sheet name="SQL08Search" sheetId="3" r:id="rId3"/>
     <sheet name="Other Notes" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2597,7 +2598,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2697,7 +2698,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A4D5E5E5-246F-404A-B33E-066CD620C88E}" name="Table3" displayName="Table3" ref="B2:G327" totalsRowShown="0">
-  <autoFilter ref="B2:G327" xr:uid="{A4D5E5E5-246F-404A-B33E-066CD620C88E}"/>
+  <autoFilter ref="B2:G327" xr:uid="{A4D5E5E5-246F-404A-B33E-066CD620C88E}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="PRODUCT_INFO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G327">
     <sortCondition ref="B2:B327"/>
   </sortState>
@@ -3012,22 +3019,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC276707-5172-433C-A002-0ED5E3ED3447}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3035,36 +3042,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="str" cm="1">
-        <f t="array" aca="1" ref="A2:A23" ca="1">_xlfn.UNIQUE(SQL08Search!B3:'SQL08Search'!B327)</f>
+        <f t="array" ref="A2:A23">_xlfn.UNIQUE(SQL08Search!B3:'SQL08Search'!B327)</f>
         <v>2Ship</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
-        <f ca="1"/>
         <v>Accounting</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
-        <f ca="1"/>
         <v>AutoFEUpdaterLog</v>
       </c>
       <c r="B4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
-        <f ca="1"/>
         <v>Datafeed</v>
       </c>
       <c r="B5">
@@ -3073,36 +3077,32 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
-        <f ca="1"/>
         <v>DataScope_Utility</v>
       </c>
       <c r="B6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
-        <f ca="1"/>
         <v>DataWarehouse</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
-        <f ca="1"/>
         <v>DBAdmin</v>
       </c>
       <c r="B8">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
-        <f ca="1"/>
         <v>Ecat</v>
       </c>
       <c r="B9">
@@ -3110,9 +3110,8 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
-        <f ca="1"/>
         <v>EPIM</v>
       </c>
       <c r="B10">
@@ -3120,9 +3119,8 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
-        <f ca="1"/>
         <v>EPX</v>
       </c>
       <c r="B11">
@@ -3130,9 +3128,8 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
-        <f ca="1"/>
         <v>Global</v>
       </c>
       <c r="B12">
@@ -3140,9 +3137,8 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
-        <f ca="1"/>
         <v>master</v>
       </c>
       <c r="B13">
@@ -3150,9 +3146,8 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
-        <f ca="1"/>
         <v>MFiles_GWCVault</v>
       </c>
       <c r="B14">
@@ -3160,9 +3155,8 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
-        <f ca="1"/>
         <v>MFiles_Utility</v>
       </c>
       <c r="B15">
@@ -3170,9 +3164,8 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
-        <f ca="1"/>
         <v>NotifyEvent</v>
       </c>
       <c r="B16">
@@ -3180,9 +3173,8 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
-        <f ca="1"/>
         <v>PRODUCT_INFO</v>
       </c>
       <c r="B17">
@@ -3190,9 +3182,8 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
-        <f ca="1"/>
         <v>ReportServer</v>
       </c>
       <c r="B18">
@@ -3200,45 +3191,40 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
-        <f ca="1"/>
         <v>SalesOrderAllocation100</v>
       </c>
       <c r="B19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
-        <f ca="1"/>
         <v>SugarCRMAnalytics</v>
       </c>
       <c r="B20">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
-        <f ca="1"/>
         <v>SugarCRMAnalyticsView</v>
       </c>
       <c r="B21">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
-        <f ca="1"/>
         <v>SysproDocument</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
-        <f ca="1"/>
         <v>Transport</v>
       </c>
       <c r="B23">
@@ -3258,14 +3244,14 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" customWidth="1"/>
-    <col min="5" max="5" width="92.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.81640625" customWidth="1"/>
+    <col min="4" max="4" width="42.81640625" customWidth="1"/>
+    <col min="5" max="5" width="92.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -3279,7 +3265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="44.25" customHeight="1">
+    <row r="3" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3293,7 +3279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -3307,7 +3293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -3321,7 +3307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3333,7 +3319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="29.1">
+    <row r="7" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -3347,7 +3333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
@@ -3355,7 +3341,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="2:5" ht="29.1">
+    <row r="9" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -3369,7 +3355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="29.1">
+    <row r="10" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -3383,7 +3369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="29.1">
+    <row r="11" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -3397,7 +3383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="30.75">
+    <row r="12" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -3411,7 +3397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="30.75">
+    <row r="13" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -3425,7 +3411,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="30.75">
+    <row r="14" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -3439,7 +3425,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="30.75">
+    <row r="15" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -3453,7 +3439,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -3467,7 +3453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -3481,7 +3467,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>6</v>
       </c>
@@ -3495,7 +3481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -3522,21 +3508,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10214EFF-0E92-4A18-A44F-3A472A968DA3}">
   <dimension ref="B2:G327"/>
   <sheetViews>
-    <sheetView topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="86.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>48</v>
       </c>
@@ -3556,7 +3542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>53</v>
       </c>
@@ -3573,7 +3559,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -3590,7 +3576,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -3607,7 +3593,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -3624,7 +3610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>53</v>
       </c>
@@ -3641,7 +3627,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>53</v>
       </c>
@@ -3658,7 +3644,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>53</v>
       </c>
@@ -3675,7 +3661,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -3695,7 +3681,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>53</v>
       </c>
@@ -3715,7 +3701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>53</v>
       </c>
@@ -3735,7 +3721,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>53</v>
       </c>
@@ -3755,7 +3741,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -3775,7 +3761,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>53</v>
       </c>
@@ -3795,7 +3781,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>53</v>
       </c>
@@ -3815,7 +3801,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>84</v>
       </c>
@@ -3835,7 +3821,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>84</v>
       </c>
@@ -3855,7 +3841,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>84</v>
       </c>
@@ -3875,7 +3861,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>84</v>
       </c>
@@ -3895,7 +3881,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>84</v>
       </c>
@@ -3915,7 +3901,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>84</v>
       </c>
@@ -3935,7 +3921,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>84</v>
       </c>
@@ -3955,7 +3941,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>84</v>
       </c>
@@ -3975,7 +3961,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>84</v>
       </c>
@@ -3995,7 +3981,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>84</v>
       </c>
@@ -4015,7 +4001,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>84</v>
       </c>
@@ -4035,7 +4021,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>84</v>
       </c>
@@ -4055,7 +4041,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>84</v>
       </c>
@@ -4075,7 +4061,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>84</v>
       </c>
@@ -4095,7 +4081,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>84</v>
       </c>
@@ -4115,7 +4101,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>84</v>
       </c>
@@ -4135,7 +4121,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>84</v>
       </c>
@@ -4155,7 +4141,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>84</v>
       </c>
@@ -4175,7 +4161,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>84</v>
       </c>
@@ -4195,7 +4181,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>84</v>
       </c>
@@ -4215,7 +4201,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>84</v>
       </c>
@@ -4235,7 +4221,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>84</v>
       </c>
@@ -4255,7 +4241,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>84</v>
       </c>
@@ -4275,7 +4261,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>84</v>
       </c>
@@ -4295,7 +4281,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>84</v>
       </c>
@@ -4315,7 +4301,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>84</v>
       </c>
@@ -4335,7 +4321,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>84</v>
       </c>
@@ -4355,7 +4341,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>84</v>
       </c>
@@ -4375,7 +4361,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>84</v>
       </c>
@@ -4395,7 +4381,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>84</v>
       </c>
@@ -4415,7 +4401,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>84</v>
       </c>
@@ -4435,7 +4421,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>84</v>
       </c>
@@ -4455,7 +4441,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>84</v>
       </c>
@@ -4475,7 +4461,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>84</v>
       </c>
@@ -4495,7 +4481,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>84</v>
       </c>
@@ -4515,7 +4501,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>84</v>
       </c>
@@ -4535,7 +4521,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>84</v>
       </c>
@@ -4555,7 +4541,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>167</v>
       </c>
@@ -4575,7 +4561,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>171</v>
       </c>
@@ -4595,7 +4581,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>171</v>
       </c>
@@ -4615,7 +4601,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>171</v>
       </c>
@@ -4635,7 +4621,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>171</v>
       </c>
@@ -4655,7 +4641,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>171</v>
       </c>
@@ -4675,7 +4661,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>171</v>
       </c>
@@ -4695,7 +4681,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>171</v>
       </c>
@@ -4715,7 +4701,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>171</v>
       </c>
@@ -4735,7 +4721,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>171</v>
       </c>
@@ -4755,7 +4741,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>171</v>
       </c>
@@ -4775,7 +4761,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>171</v>
       </c>
@@ -4795,7 +4781,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>171</v>
       </c>
@@ -4815,7 +4801,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>204</v>
       </c>
@@ -4835,7 +4821,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>204</v>
       </c>
@@ -4855,7 +4841,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>211</v>
       </c>
@@ -4875,7 +4861,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>211</v>
       </c>
@@ -4895,7 +4881,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>218</v>
       </c>
@@ -4915,7 +4901,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>218</v>
       </c>
@@ -4935,7 +4921,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>218</v>
       </c>
@@ -4955,7 +4941,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>218</v>
       </c>
@@ -4975,7 +4961,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>218</v>
       </c>
@@ -4995,7 +4981,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>218</v>
       </c>
@@ -5015,7 +5001,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>218</v>
       </c>
@@ -5035,7 +5021,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>238</v>
       </c>
@@ -5055,7 +5041,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>238</v>
       </c>
@@ -5075,7 +5061,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>238</v>
       </c>
@@ -5095,7 +5081,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>238</v>
       </c>
@@ -5115,7 +5101,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>238</v>
       </c>
@@ -5135,7 +5121,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>238</v>
       </c>
@@ -5155,7 +5141,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>238</v>
       </c>
@@ -5175,7 +5161,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>238</v>
       </c>
@@ -5195,7 +5181,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>238</v>
       </c>
@@ -5215,7 +5201,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>238</v>
       </c>
@@ -5235,7 +5221,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>238</v>
       </c>
@@ -5255,7 +5241,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>238</v>
       </c>
@@ -5275,7 +5261,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>238</v>
       </c>
@@ -5295,7 +5281,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>238</v>
       </c>
@@ -5315,7 +5301,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>238</v>
       </c>
@@ -5335,7 +5321,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>238</v>
       </c>
@@ -5355,7 +5341,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>238</v>
       </c>
@@ -5375,7 +5361,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>238</v>
       </c>
@@ -5395,7 +5381,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>238</v>
       </c>
@@ -5415,7 +5401,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>238</v>
       </c>
@@ -5435,7 +5421,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>238</v>
       </c>
@@ -5455,7 +5441,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>238</v>
       </c>
@@ -5475,7 +5461,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>238</v>
       </c>
@@ -5495,7 +5481,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>238</v>
       </c>
@@ -5515,7 +5501,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="102" spans="2:7">
+    <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>238</v>
       </c>
@@ -5535,7 +5521,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>238</v>
       </c>
@@ -5555,7 +5541,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>238</v>
       </c>
@@ -5575,7 +5561,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="105" spans="2:7">
+    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>238</v>
       </c>
@@ -5595,7 +5581,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>238</v>
       </c>
@@ -5615,7 +5601,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="2:7">
+    <row r="107" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>238</v>
       </c>
@@ -5635,7 +5621,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="108" spans="2:7">
+    <row r="108" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>238</v>
       </c>
@@ -5655,7 +5641,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="109" spans="2:7">
+    <row r="109" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>296</v>
       </c>
@@ -5675,7 +5661,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="110" spans="2:7">
+    <row r="110" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>296</v>
       </c>
@@ -5695,7 +5681,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="111" spans="2:7">
+    <row r="111" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>296</v>
       </c>
@@ -5715,7 +5701,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="112" spans="2:7">
+    <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>296</v>
       </c>
@@ -5735,7 +5721,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="113" spans="2:7">
+    <row r="113" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>308</v>
       </c>
@@ -5755,7 +5741,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>308</v>
       </c>
@@ -5775,7 +5761,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>308</v>
       </c>
@@ -5795,7 +5781,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>308</v>
       </c>
@@ -5815,7 +5801,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="117" spans="2:7">
+    <row r="117" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>308</v>
       </c>
@@ -5835,7 +5821,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="118" spans="2:7">
+    <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>308</v>
       </c>
@@ -5855,7 +5841,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="119" spans="2:7">
+    <row r="119" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>308</v>
       </c>
@@ -5875,7 +5861,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="120" spans="2:7">
+    <row r="120" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>308</v>
       </c>
@@ -5895,7 +5881,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="121" spans="2:7">
+    <row r="121" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>329</v>
       </c>
@@ -5915,7 +5901,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="122" spans="2:7">
+    <row r="122" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>329</v>
       </c>
@@ -5935,7 +5921,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="123" spans="2:7">
+    <row r="123" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>329</v>
       </c>
@@ -5955,7 +5941,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="124" spans="2:7">
+    <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>339</v>
       </c>
@@ -5975,7 +5961,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="125" spans="2:7">
+    <row r="125" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>343</v>
       </c>
@@ -5995,7 +5981,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>343</v>
       </c>
@@ -6015,7 +6001,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="2:7">
+    <row r="127" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>343</v>
       </c>
@@ -6035,7 +6021,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="128" spans="2:7">
+    <row r="128" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>352</v>
       </c>
@@ -6055,7 +6041,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>352</v>
       </c>
@@ -6075,7 +6061,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>352</v>
       </c>
@@ -6095,7 +6081,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>352</v>
       </c>
@@ -6115,7 +6101,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>352</v>
       </c>
@@ -6135,7 +6121,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>352</v>
       </c>
@@ -6155,7 +6141,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>352</v>
       </c>
@@ -6175,7 +6161,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>352</v>
       </c>
@@ -6195,7 +6181,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="136" spans="2:7">
+    <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>352</v>
       </c>
@@ -6215,7 +6201,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>352</v>
       </c>
@@ -6235,7 +6221,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>352</v>
       </c>
@@ -6255,7 +6241,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>352</v>
       </c>
@@ -6275,7 +6261,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>352</v>
       </c>
@@ -6295,7 +6281,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>352</v>
       </c>
@@ -6315,7 +6301,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>352</v>
       </c>
@@ -6335,7 +6321,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>352</v>
       </c>
@@ -6355,7 +6341,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>352</v>
       </c>
@@ -6375,7 +6361,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="145" spans="2:7">
+    <row r="145" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>352</v>
       </c>
@@ -6395,7 +6381,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="146" spans="2:7">
+    <row r="146" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>352</v>
       </c>
@@ -6415,7 +6401,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="147" spans="2:7">
+    <row r="147" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>352</v>
       </c>
@@ -6435,7 +6421,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="148" spans="2:7">
+    <row r="148" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>352</v>
       </c>
@@ -6455,7 +6441,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>352</v>
       </c>
@@ -6475,7 +6461,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="150" spans="2:7">
+    <row r="150" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>352</v>
       </c>
@@ -6495,7 +6481,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>408</v>
       </c>
@@ -6515,7 +6501,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>408</v>
       </c>
@@ -6535,7 +6521,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>408</v>
       </c>
@@ -6555,7 +6541,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>408</v>
       </c>
@@ -6575,7 +6561,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>408</v>
       </c>
@@ -6595,7 +6581,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>408</v>
       </c>
@@ -6615,7 +6601,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>408</v>
       </c>
@@ -6635,7 +6621,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>408</v>
       </c>
@@ -6655,7 +6641,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="159" spans="2:7">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>429</v>
       </c>
@@ -6675,7 +6661,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="160" spans="2:7">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>429</v>
       </c>
@@ -6695,7 +6681,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="161" spans="2:7">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>429</v>
       </c>
@@ -6715,7 +6701,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="162" spans="2:7">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>429</v>
       </c>
@@ -6735,7 +6721,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="163" spans="2:7">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>429</v>
       </c>
@@ -6755,7 +6741,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="164" spans="2:7">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>429</v>
       </c>
@@ -6775,7 +6761,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="165" spans="2:7">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>429</v>
       </c>
@@ -6795,7 +6781,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="166" spans="2:7">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>429</v>
       </c>
@@ -6815,7 +6801,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="167" spans="2:7">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>429</v>
       </c>
@@ -6835,7 +6821,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="168" spans="2:7">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>429</v>
       </c>
@@ -6855,7 +6841,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="169" spans="2:7">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>429</v>
       </c>
@@ -6875,7 +6861,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="170" spans="2:7">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>429</v>
       </c>
@@ -6895,7 +6881,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="171" spans="2:7">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>429</v>
       </c>
@@ -6915,7 +6901,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="172" spans="2:7">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>429</v>
       </c>
@@ -6935,7 +6921,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="173" spans="2:7">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>429</v>
       </c>
@@ -6955,7 +6941,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="174" spans="2:7">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>429</v>
       </c>
@@ -6975,7 +6961,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="175" spans="2:7">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>429</v>
       </c>
@@ -6995,7 +6981,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="176" spans="2:7">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>429</v>
       </c>
@@ -7015,7 +7001,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="177" spans="2:7">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>429</v>
       </c>
@@ -7035,7 +7021,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="178" spans="2:7">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>429</v>
       </c>
@@ -7055,7 +7041,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="179" spans="2:7">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>429</v>
       </c>
@@ -7075,7 +7061,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="180" spans="2:7">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>429</v>
       </c>
@@ -7095,7 +7081,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="181" spans="2:7">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>429</v>
       </c>
@@ -7115,7 +7101,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="182" spans="2:7">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>429</v>
       </c>
@@ -7135,7 +7121,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="183" spans="2:7">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>429</v>
       </c>
@@ -7155,7 +7141,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="184" spans="2:7">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>429</v>
       </c>
@@ -7175,7 +7161,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="185" spans="2:7">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>429</v>
       </c>
@@ -7195,7 +7181,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="186" spans="2:7">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>429</v>
       </c>
@@ -7215,7 +7201,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="187" spans="2:7">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>429</v>
       </c>
@@ -7235,7 +7221,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="188" spans="2:7">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>429</v>
       </c>
@@ -7255,7 +7241,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="189" spans="2:7">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>429</v>
       </c>
@@ -7275,7 +7261,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="190" spans="2:7">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>429</v>
       </c>
@@ -7295,7 +7281,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="191" spans="2:7">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>429</v>
       </c>
@@ -7315,7 +7301,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="192" spans="2:7">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>429</v>
       </c>
@@ -7335,7 +7321,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="193" spans="2:7">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>429</v>
       </c>
@@ -7355,7 +7341,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="194" spans="2:7">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>429</v>
       </c>
@@ -7375,7 +7361,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="195" spans="2:7">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>429</v>
       </c>
@@ -7395,7 +7381,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="196" spans="2:7">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>429</v>
       </c>
@@ -7415,7 +7401,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="197" spans="2:7">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>429</v>
       </c>
@@ -7435,7 +7421,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="198" spans="2:7">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>429</v>
       </c>
@@ -7455,7 +7441,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="199" spans="2:7">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>429</v>
       </c>
@@ -7475,7 +7461,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="200" spans="2:7">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>429</v>
       </c>
@@ -7495,7 +7481,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="201" spans="2:7">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>429</v>
       </c>
@@ -7515,7 +7501,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="202" spans="2:7">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>429</v>
       </c>
@@ -7535,7 +7521,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="203" spans="2:7">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>429</v>
       </c>
@@ -7555,7 +7541,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="204" spans="2:7">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>429</v>
       </c>
@@ -7575,7 +7561,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="205" spans="2:7">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>429</v>
       </c>
@@ -7595,7 +7581,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="206" spans="2:7">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>429</v>
       </c>
@@ -7615,7 +7601,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="207" spans="2:7">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>429</v>
       </c>
@@ -7635,7 +7621,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="208" spans="2:7">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>429</v>
       </c>
@@ -7655,7 +7641,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="209" spans="2:7">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>429</v>
       </c>
@@ -7675,7 +7661,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="210" spans="2:7">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>429</v>
       </c>
@@ -7695,7 +7681,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="211" spans="2:7">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>429</v>
       </c>
@@ -7715,7 +7701,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="212" spans="2:7">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>429</v>
       </c>
@@ -7735,7 +7721,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="213" spans="2:7">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B213" t="s">
         <v>429</v>
       </c>
@@ -7755,7 +7741,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="214" spans="2:7">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>429</v>
       </c>
@@ -7775,7 +7761,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="215" spans="2:7">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>429</v>
       </c>
@@ -7795,7 +7781,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="216" spans="2:7">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>429</v>
       </c>
@@ -7815,7 +7801,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="217" spans="2:7">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
         <v>429</v>
       </c>
@@ -7835,7 +7821,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="218" spans="2:7">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>429</v>
       </c>
@@ -7855,7 +7841,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="219" spans="2:7">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B219" t="s">
         <v>429</v>
       </c>
@@ -7875,7 +7861,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="220" spans="2:7">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>429</v>
       </c>
@@ -7895,7 +7881,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="221" spans="2:7">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
         <v>429</v>
       </c>
@@ -7915,7 +7901,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="222" spans="2:7">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
         <v>429</v>
       </c>
@@ -7935,7 +7921,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="223" spans="2:7">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B223" t="s">
         <v>429</v>
       </c>
@@ -7955,7 +7941,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="224" spans="2:7">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>429</v>
       </c>
@@ -7975,7 +7961,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="225" spans="2:7">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>429</v>
       </c>
@@ -7995,7 +7981,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="226" spans="2:7">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>429</v>
       </c>
@@ -8015,7 +8001,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="227" spans="2:7">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>429</v>
       </c>
@@ -8035,7 +8021,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="228" spans="2:7">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B228" t="s">
         <v>429</v>
       </c>
@@ -8055,7 +8041,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="229" spans="2:7">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B229" t="s">
         <v>429</v>
       </c>
@@ -8075,7 +8061,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="230" spans="2:7">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B230" t="s">
         <v>429</v>
       </c>
@@ -8095,7 +8081,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="231" spans="2:7">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B231" t="s">
         <v>429</v>
       </c>
@@ -8115,7 +8101,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="232" spans="2:7">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B232" t="s">
         <v>429</v>
       </c>
@@ -8135,7 +8121,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="233" spans="2:7">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B233" t="s">
         <v>429</v>
       </c>
@@ -8155,7 +8141,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="234" spans="2:7">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
         <v>429</v>
       </c>
@@ -8175,7 +8161,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="235" spans="2:7">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B235" t="s">
         <v>429</v>
       </c>
@@ -8195,7 +8181,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="236" spans="2:7">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B236" t="s">
         <v>429</v>
       </c>
@@ -8215,7 +8201,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="237" spans="2:7">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B237" t="s">
         <v>429</v>
       </c>
@@ -8235,7 +8221,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="238" spans="2:7">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>429</v>
       </c>
@@ -8255,7 +8241,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="239" spans="2:7">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B239" t="s">
         <v>429</v>
       </c>
@@ -8275,7 +8261,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="240" spans="2:7">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
         <v>429</v>
       </c>
@@ -8295,7 +8281,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="241" spans="2:7">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>429</v>
       </c>
@@ -8315,7 +8301,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="242" spans="2:7">
+    <row r="242" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B242" t="s">
         <v>629</v>
       </c>
@@ -8335,7 +8321,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="243" spans="2:7">
+    <row r="243" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B243" t="s">
         <v>629</v>
       </c>
@@ -8355,7 +8341,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="244" spans="2:7">
+    <row r="244" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B244" t="s">
         <v>629</v>
       </c>
@@ -8375,7 +8361,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="245" spans="2:7">
+    <row r="245" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B245" t="s">
         <v>629</v>
       </c>
@@ -8395,7 +8381,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="246" spans="2:7">
+    <row r="246" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B246" t="s">
         <v>641</v>
       </c>
@@ -8415,7 +8401,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="247" spans="2:7">
+    <row r="247" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B247" t="s">
         <v>643</v>
       </c>
@@ -8435,7 +8421,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="248" spans="2:7">
+    <row r="248" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B248" t="s">
         <v>643</v>
       </c>
@@ -8455,7 +8441,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="249" spans="2:7">
+    <row r="249" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B249" t="s">
         <v>643</v>
       </c>
@@ -8475,7 +8461,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="250" spans="2:7">
+    <row r="250" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B250" t="s">
         <v>643</v>
       </c>
@@ -8495,7 +8481,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="251" spans="2:7">
+    <row r="251" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B251" t="s">
         <v>643</v>
       </c>
@@ -8515,7 +8501,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="252" spans="2:7">
+    <row r="252" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
         <v>643</v>
       </c>
@@ -8535,7 +8521,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="253" spans="2:7">
+    <row r="253" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>643</v>
       </c>
@@ -8555,7 +8541,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="254" spans="2:7">
+    <row r="254" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B254" t="s">
         <v>643</v>
       </c>
@@ -8575,7 +8561,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="255" spans="2:7">
+    <row r="255" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B255" t="s">
         <v>643</v>
       </c>
@@ -8595,7 +8581,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="256" spans="2:7">
+    <row r="256" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B256" t="s">
         <v>643</v>
       </c>
@@ -8615,7 +8601,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="257" spans="2:7">
+    <row r="257" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B257" t="s">
         <v>643</v>
       </c>
@@ -8635,7 +8621,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="258" spans="2:7">
+    <row r="258" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B258" t="s">
         <v>643</v>
       </c>
@@ -8655,7 +8641,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="259" spans="2:7">
+    <row r="259" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B259" t="s">
         <v>665</v>
       </c>
@@ -8675,7 +8661,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="260" spans="2:7">
+    <row r="260" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
         <v>665</v>
       </c>
@@ -8695,7 +8681,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="261" spans="2:7">
+    <row r="261" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B261" t="s">
         <v>665</v>
       </c>
@@ -8715,7 +8701,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="262" spans="2:7">
+    <row r="262" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B262" t="s">
         <v>665</v>
       </c>
@@ -8735,7 +8721,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="263" spans="2:7">
+    <row r="263" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
         <v>675</v>
       </c>
@@ -8755,7 +8741,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="264" spans="2:7">
+    <row r="264" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B264" t="s">
         <v>675</v>
       </c>
@@ -8775,7 +8761,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="265" spans="2:7">
+    <row r="265" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B265" t="s">
         <v>675</v>
       </c>
@@ -8795,7 +8781,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="266" spans="2:7">
+    <row r="266" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
         <v>675</v>
       </c>
@@ -8815,7 +8801,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="267" spans="2:7">
+    <row r="267" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B267" t="s">
         <v>675</v>
       </c>
@@ -8835,7 +8821,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="268" spans="2:7">
+    <row r="268" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>675</v>
       </c>
@@ -8855,7 +8841,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="269" spans="2:7">
+    <row r="269" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
         <v>675</v>
       </c>
@@ -8875,7 +8861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="270" spans="2:7">
+    <row r="270" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>675</v>
       </c>
@@ -8895,7 +8881,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="271" spans="2:7">
+    <row r="271" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B271" t="s">
         <v>675</v>
       </c>
@@ -8915,7 +8901,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="272" spans="2:7">
+    <row r="272" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B272" t="s">
         <v>675</v>
       </c>
@@ -8935,7 +8921,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="273" spans="2:7">
+    <row r="273" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B273" t="s">
         <v>675</v>
       </c>
@@ -8955,7 +8941,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="274" spans="2:7">
+    <row r="274" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B274" t="s">
         <v>675</v>
       </c>
@@ -8975,7 +8961,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="275" spans="2:7">
+    <row r="275" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B275" t="s">
         <v>675</v>
       </c>
@@ -8995,7 +8981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="276" spans="2:7">
+    <row r="276" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B276" t="s">
         <v>675</v>
       </c>
@@ -9015,7 +9001,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="277" spans="2:7">
+    <row r="277" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B277" t="s">
         <v>675</v>
       </c>
@@ -9035,7 +9021,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="278" spans="2:7">
+    <row r="278" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B278" t="s">
         <v>675</v>
       </c>
@@ -9055,7 +9041,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="279" spans="2:7">
+    <row r="279" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B279" t="s">
         <v>675</v>
       </c>
@@ -9075,7 +9061,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="280" spans="2:7">
+    <row r="280" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B280" t="s">
         <v>675</v>
       </c>
@@ -9095,7 +9081,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="281" spans="2:7">
+    <row r="281" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B281" t="s">
         <v>675</v>
       </c>
@@ -9115,7 +9101,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="282" spans="2:7">
+    <row r="282" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B282" t="s">
         <v>675</v>
       </c>
@@ -9135,7 +9121,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="283" spans="2:7">
+    <row r="283" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B283" t="s">
         <v>675</v>
       </c>
@@ -9155,7 +9141,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="284" spans="2:7">
+    <row r="284" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B284" t="s">
         <v>675</v>
       </c>
@@ -9175,7 +9161,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="285" spans="2:7">
+    <row r="285" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B285" t="s">
         <v>675</v>
       </c>
@@ -9195,7 +9181,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="286" spans="2:7">
+    <row r="286" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B286" t="s">
         <v>675</v>
       </c>
@@ -9215,7 +9201,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="287" spans="2:7">
+    <row r="287" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B287" t="s">
         <v>733</v>
       </c>
@@ -9232,7 +9218,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="288" spans="2:7">
+    <row r="288" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B288" t="s">
         <v>733</v>
       </c>
@@ -9249,7 +9235,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="289" spans="2:7">
+    <row r="289" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B289" t="s">
         <v>733</v>
       </c>
@@ -9266,7 +9252,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="290" spans="2:7">
+    <row r="290" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B290" t="s">
         <v>733</v>
       </c>
@@ -9283,7 +9269,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="291" spans="2:7">
+    <row r="291" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B291" t="s">
         <v>733</v>
       </c>
@@ -9300,7 +9286,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="292" spans="2:7">
+    <row r="292" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B292" t="s">
         <v>733</v>
       </c>
@@ -9317,7 +9303,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="293" spans="2:7">
+    <row r="293" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B293" t="s">
         <v>733</v>
       </c>
@@ -9334,7 +9320,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="294" spans="2:7">
+    <row r="294" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B294" t="s">
         <v>733</v>
       </c>
@@ -9351,7 +9337,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="295" spans="2:7">
+    <row r="295" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B295" t="s">
         <v>733</v>
       </c>
@@ -9368,7 +9354,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="296" spans="2:7">
+    <row r="296" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B296" t="s">
         <v>733</v>
       </c>
@@ -9385,7 +9371,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="297" spans="2:7">
+    <row r="297" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B297" t="s">
         <v>733</v>
       </c>
@@ -9402,7 +9388,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="298" spans="2:7">
+    <row r="298" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B298" t="s">
         <v>733</v>
       </c>
@@ -9419,7 +9405,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="299" spans="2:7">
+    <row r="299" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B299" t="s">
         <v>733</v>
       </c>
@@ -9436,7 +9422,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="300" spans="2:7">
+    <row r="300" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B300" t="s">
         <v>733</v>
       </c>
@@ -9453,7 +9439,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="301" spans="2:7">
+    <row r="301" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B301" t="s">
         <v>733</v>
       </c>
@@ -9470,7 +9456,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="302" spans="2:7">
+    <row r="302" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B302" t="s">
         <v>733</v>
       </c>
@@ -9487,7 +9473,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="303" spans="2:7">
+    <row r="303" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B303" t="s">
         <v>733</v>
       </c>
@@ -9504,7 +9490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="304" spans="2:7">
+    <row r="304" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B304" t="s">
         <v>733</v>
       </c>
@@ -9521,7 +9507,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="305" spans="2:7">
+    <row r="305" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B305" t="s">
         <v>733</v>
       </c>
@@ -9538,7 +9524,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="306" spans="2:7">
+    <row r="306" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B306" t="s">
         <v>733</v>
       </c>
@@ -9555,7 +9541,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="307" spans="2:7">
+    <row r="307" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B307" t="s">
         <v>733</v>
       </c>
@@ -9572,7 +9558,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="308" spans="2:7">
+    <row r="308" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B308" t="s">
         <v>733</v>
       </c>
@@ -9589,7 +9575,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="309" spans="2:7">
+    <row r="309" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B309" t="s">
         <v>733</v>
       </c>
@@ -9606,7 +9592,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="310" spans="2:7">
+    <row r="310" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B310" t="s">
         <v>733</v>
       </c>
@@ -9623,7 +9609,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="311" spans="2:7">
+    <row r="311" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B311" t="s">
         <v>733</v>
       </c>
@@ -9640,7 +9626,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="312" spans="2:7">
+    <row r="312" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B312" t="s">
         <v>733</v>
       </c>
@@ -9657,7 +9643,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="313" spans="2:7">
+    <row r="313" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B313" t="s">
         <v>733</v>
       </c>
@@ -9674,7 +9660,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="314" spans="2:7">
+    <row r="314" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B314" t="s">
         <v>733</v>
       </c>
@@ -9691,7 +9677,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="315" spans="2:7">
+    <row r="315" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B315" t="s">
         <v>733</v>
       </c>
@@ -9708,7 +9694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="316" spans="2:7">
+    <row r="316" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B316" t="s">
         <v>733</v>
       </c>
@@ -9725,7 +9711,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="317" spans="2:7">
+    <row r="317" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B317" t="s">
         <v>733</v>
       </c>
@@ -9742,7 +9728,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="318" spans="2:7">
+    <row r="318" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B318" t="s">
         <v>733</v>
       </c>
@@ -9759,7 +9745,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="319" spans="2:7">
+    <row r="319" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B319" t="s">
         <v>733</v>
       </c>
@@ -9776,7 +9762,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="320" spans="2:7">
+    <row r="320" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B320" t="s">
         <v>733</v>
       </c>
@@ -9793,7 +9779,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="321" spans="2:7">
+    <row r="321" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B321" t="s">
         <v>733</v>
       </c>
@@ -9810,7 +9796,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="322" spans="2:7">
+    <row r="322" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B322" t="s">
         <v>733</v>
       </c>
@@ -9827,7 +9813,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="323" spans="2:7">
+    <row r="323" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B323" t="s">
         <v>733</v>
       </c>
@@ -9844,7 +9830,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="324" spans="2:7">
+    <row r="324" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B324" t="s">
         <v>733</v>
       </c>
@@ -9861,7 +9847,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="325" spans="2:7">
+    <row r="325" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B325" t="s">
         <v>733</v>
       </c>
@@ -9878,7 +9864,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="326" spans="2:7">
+    <row r="326" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B326" t="s">
         <v>733</v>
       </c>
@@ -9895,7 +9881,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="327" spans="2:7">
+    <row r="327" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B327" t="s">
         <v>733</v>
       </c>
@@ -9928,194 +9914,206 @@
       <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>839</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FAE7BB-FC8B-41CF-B74D-C300646EAF6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10313,6 +10311,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="33c54fed-5f4b-40b3-90eb-cb1bbf79a485">
@@ -10322,23 +10329,38 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBE1E127-D3CA-46E6-9145-0E8DC40782A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBE1E127-D3CA-46E6-9145-0E8DC40782A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="33c54fed-5f4b-40b3-90eb-cb1bbf79a485"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C39CD26-FB53-4725-A6A8-502A322190CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E4EDB10-E069-4454-B4F1-7C81F11CF5E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E4EDB10-E069-4454-B4F1-7C81F11CF5E3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C39CD26-FB53-4725-A6A8-502A322190CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="33c54fed-5f4b-40b3-90eb-cb1bbf79a485"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Tickets/Normal Tickets/Ticket 32434 - Address Verfication/AddressChangeSearchResults.xlsx
+++ b/Tickets/Normal Tickets/Ticket 32434 - Address Verfication/AddressChangeSearchResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WIP\Tickets\Normal Tickets\Ticket 32434 - Address Verfication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E31463-2BCF-4BAF-B016-0CCA91020C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD009E82-F66C-4C17-9B0C-B7E6689779B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17085" yWindow="-16470" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{23018EB3-73C3-44CA-9407-C6F0E5FCCC93}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" activeTab="2" xr2:uid="{23018EB3-73C3-44CA-9407-C6F0E5FCCC93}"/>
   </bookViews>
   <sheets>
     <sheet name="Priority List" sheetId="2" r:id="rId1"/>
@@ -2701,7 +2701,7 @@
   <autoFilter ref="B2:G327" xr:uid="{A4D5E5E5-246F-404A-B33E-066CD620C88E}">
     <filterColumn colId="0">
       <filters>
-        <filter val="PRODUCT_INFO"/>
+        <filter val="NotifyEvent"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3009,7 +3009,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3508,15 +3508,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10214EFF-0E92-4A18-A44F-3A472A968DA3}">
   <dimension ref="B2:G327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="4" max="4" width="53.08984375" customWidth="1"/>
     <col min="5" max="5" width="19.54296875" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="255.6328125" bestFit="1" customWidth="1"/>
@@ -6481,7 +6481,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="151" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>408</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="152" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>408</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="153" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>408</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="154" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>408</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="155" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>408</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="156" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>408</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="157" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>408</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="158" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>408</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>429</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>429</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>429</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>429</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>429</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>429</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>429</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>429</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>429</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>429</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>429</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>429</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>429</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>429</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>429</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>429</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>429</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>429</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>429</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>429</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>429</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>429</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>429</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>429</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>429</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>429</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>429</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>429</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>429</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>429</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>429</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>429</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>429</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>429</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>429</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>429</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>429</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>429</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>429</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>429</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>429</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>429</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>429</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>429</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>429</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>429</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>429</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>429</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>429</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>429</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>429</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>429</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>429</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>429</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B213" t="s">
         <v>429</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>429</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>429</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>429</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
         <v>429</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>429</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B219" t="s">
         <v>429</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>429</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
         <v>429</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
         <v>429</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B223" t="s">
         <v>429</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>429</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>429</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>429</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>429</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B228" t="s">
         <v>429</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B229" t="s">
         <v>429</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B230" t="s">
         <v>429</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B231" t="s">
         <v>429</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B232" t="s">
         <v>429</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B233" t="s">
         <v>429</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
         <v>429</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B235" t="s">
         <v>429</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B236" t="s">
         <v>429</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B237" t="s">
         <v>429</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>429</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B239" t="s">
         <v>429</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
         <v>429</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>429</v>
       </c>
@@ -10119,6 +10119,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="33c54fed-5f4b-40b3-90eb-cb1bbf79a485">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100308C43BEF558124388D34D5092679C7C" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e1e6eb19c8badb412118efec3353434">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="33c54fed-5f4b-40b3-90eb-cb1bbf79a485" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="20aeb7cc8d0be30204d9fe0ae8071ce9" ns2:_="">
     <xsd:import namespace="33c54fed-5f4b-40b3-90eb-cb1bbf79a485"/>
@@ -10310,26 +10329,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C39CD26-FB53-4725-A6A8-502A322190CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="33c54fed-5f4b-40b3-90eb-cb1bbf79a485"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="33c54fed-5f4b-40b3-90eb-cb1bbf79a485">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E4EDB10-E069-4454-B4F1-7C81F11CF5E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBE1E127-D3CA-46E6-9145-0E8DC40782A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10345,22 +10363,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E4EDB10-E069-4454-B4F1-7C81F11CF5E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C39CD26-FB53-4725-A6A8-502A322190CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="33c54fed-5f4b-40b3-90eb-cb1bbf79a485"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>